--- a/Data/Input/Relatório_Sintético.xlsx
+++ b/Data/Input/Relatório_Sintético.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\robo\Projetos UiPath\prj_HC_ContasMunicipais\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\robo\prj_HC_ContasMunicipais_SANASA\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277ED401-62FE-4E49-92F2-F839078FFAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E362DF-728B-4BC2-90D2-6D3AA3611399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14055" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="1. Sintético" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <x:si>
     <x:t>.....</x:t>
   </x:si>
@@ -55,97 +55,85 @@
     <x:t>Quantidade de itens processada</x:t>
   </x:si>
   <x:si>
-    <x:t>prj_HC_ContasMunicipais</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/03/2022 10:06:35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/03/2022 10:07:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:00:24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/03/2022 10:20:20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/03/2022 10:20:58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:00:37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24/03/2022 15:07:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24/03/2022 15:07:49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:00:43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25/03/2022 12:39:32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25/03/2022 12:44:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:05:12</x:t>
+    <x:t>prj_HC_ContasMunicipais_SANASA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 13:37:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 13:43:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:05:56</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>25/03/2022 13:07:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25/03/2022 13:08:57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:01:56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25/03/2022 13:15:40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25/03/2022 13:17:57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:02:17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25/03/2022 13:23:40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25/03/2022 13:27:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:03:21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25/03/2022 14:56:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25/03/2022 14:59:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:03:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25/03/2022 15:17:51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25/03/2022 15:21:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:03:12</x:t>
+    <x:t>28/03/2022 13:48:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 13:55:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 13:59:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:04:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 14:20:58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 14:20:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 14:36:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 14:36:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:00:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 14:53:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 14:53:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:00:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 15:01:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 15:01:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:00:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 15:33:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 15:33:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 15:38:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/2022 15:38:02</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -298,29 +286,113 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="176">
+  <x:cellStyleXfs count="263">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -348,13 +420,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -363,6 +429,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -390,24 +465,108 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -435,13 +594,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -450,6 +603,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -477,24 +639,108 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -522,13 +768,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -537,6 +777,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -564,24 +813,108 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -609,13 +942,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -624,6 +951,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -651,148 +987,61 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -920,44 +1169,44 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1358,12 +1607,12 @@
   <x:dimension ref="A1:G94"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B8" sqref="B8 B8:B8"/>
+      <x:selection activeCell="E14" sqref="E14 E14:E14 A6:E14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="34" style="41" customWidth="1"/>
+    <x:col min="1" max="1" width="34" style="40" customWidth="1"/>
     <x:col min="2" max="3" width="20.710938" style="43" customWidth="1"/>
     <x:col min="4" max="4" width="22.425781" style="43" customWidth="1"/>
     <x:col min="5" max="6" width="20.710938" style="43" customWidth="1"/>
@@ -1371,58 +1620,58 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="33" t="s">
+      <x:c r="A1" s="32" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="34" t="s"/>
-      <x:c r="C1" s="34" t="s"/>
-      <x:c r="D1" s="34" t="s"/>
-      <x:c r="E1" s="34" t="s"/>
+      <x:c r="B1" s="33" t="s"/>
+      <x:c r="C1" s="33" t="s"/>
+      <x:c r="D1" s="33" t="s"/>
+      <x:c r="E1" s="33" t="s"/>
     </x:row>
     <x:row r="2" spans="1:7" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="35" t="s"/>
-      <x:c r="B2" s="34" t="s">
+      <x:c r="A2" s="34" t="s"/>
+      <x:c r="B2" s="33" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="34" t="s"/>
-      <x:c r="E2" s="34" t="s"/>
+      <x:c r="D2" s="33" t="s"/>
+      <x:c r="E2" s="33" t="s"/>
     </x:row>
     <x:row r="3" spans="1:7" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="35" t="s"/>
-      <x:c r="B3" s="34" t="s"/>
-      <x:c r="C3" s="34" t="s"/>
-      <x:c r="D3" s="34" t="s"/>
-      <x:c r="E3" s="36" t="s"/>
+      <x:c r="A3" s="34" t="s"/>
+      <x:c r="B3" s="33" t="s"/>
+      <x:c r="C3" s="33" t="s"/>
+      <x:c r="D3" s="33" t="s"/>
+      <x:c r="E3" s="35" t="s"/>
     </x:row>
     <x:row r="4" spans="1:7" s="45" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="37" t="s">
+      <x:c r="A4" s="36" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B4" s="37" t="s"/>
-      <x:c r="C4" s="38" t="s">
+      <x:c r="B4" s="36" t="s"/>
+      <x:c r="C4" s="37" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D4" s="39" t="s"/>
-      <x:c r="E4" s="38" t="s"/>
+      <x:c r="D4" s="38" t="s"/>
+      <x:c r="E4" s="37" t="s"/>
     </x:row>
     <x:row r="5" spans="1:7" s="46" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="40" t="s">
+      <x:c r="A5" s="39" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B5" s="40" t="s">
+      <x:c r="B5" s="39" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C5" s="40" t="s">
+      <x:c r="C5" s="39" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D5" s="40" t="s">
+      <x:c r="D5" s="39" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E5" s="40" t="s">
+      <x:c r="E5" s="39" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F5" s="41" t="s"/>
-      <x:c r="G5" s="41" t="s"/>
+      <x:c r="F5" s="40" t="s"/>
+      <x:c r="G5" s="40" t="s"/>
     </x:row>
     <x:row r="6" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A6" s="10" t="s">
@@ -1440,7 +1689,7 @@
       <x:c r="E6" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="F6" s="32" t="s"/>
+      <x:c r="F6" s="41" t="s"/>
     </x:row>
     <x:row r="7" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A7" s="10" t="s">
@@ -1450,69 +1699,69 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C7" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D7" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D7" s="11" t="s">
+      <x:c r="E7" s="8" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E7" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F7" s="32" t="s"/>
+      <x:c r="F7" s="41" t="s"/>
     </x:row>
     <x:row r="8" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A8" s="10" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="12" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C8" s="4" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C8" s="4" t="s">
+      <x:c r="D8" s="11" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="D8" s="11" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="E8" s="5" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="F8" s="32" t="s"/>
-      <x:c r="G8" s="32" t="s"/>
+      <x:c r="F8" s="41" t="s"/>
+      <x:c r="G8" s="41" t="s"/>
     </x:row>
     <x:row r="9" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A9" s="10" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B9" s="12" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C9" s="4" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C9" s="4" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="D9" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E9" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F9" s="32" t="s"/>
-      <x:c r="G9" s="32" t="s"/>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F9" s="41" t="s"/>
+      <x:c r="G9" s="41" t="s"/>
     </x:row>
     <x:row r="10" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A10" s="14" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D10" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E10" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -1520,16 +1769,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="13" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D11" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E11" s="6" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D11" s="11" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E11" s="6" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -1537,16 +1786,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B12" s="13" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D12" s="11" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C12" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D12" s="11" t="s">
-        <x:v>33</x:v>
-      </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -1554,16 +1803,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B13" s="13" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D13" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -1571,16 +1820,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="13" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D14" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">

--- a/Data/Input/Relatório_Sintético.xlsx
+++ b/Data/Input/Relatório_Sintético.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>.....</x:t>
   </x:si>
@@ -134,6 +134,93 @@
   </x:si>
   <x:si>
     <x:t>28/03/2022 15:38:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 11:51:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 11:51:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 12:15:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 12:15:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 12:36:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 12:36:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 12:56:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 13:21:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 13:24:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:03:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 13:30:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 13:32:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:01:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 13:38:19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 13:42:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:03:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 15:44:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 15:55:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:11:26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 16:25:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 16:27:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:01:58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 17:12:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/03/2022 17:20:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:07:13</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -286,8 +373,878 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="263">
+  <x:cellStyleXfs count="553">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1833,74 +2790,174 @@
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A15" s="14" t="s"/>
-      <x:c r="B15" s="13" t="s"/>
-      <x:c r="C15" s="3" t="s"/>
-      <x:c r="D15" s="11" t="s"/>
-      <x:c r="E15" s="6" t="s"/>
+      <x:c r="A15" s="14" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B15" s="13" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C15" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D15" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E15" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
     </x:row>
     <x:row r="16" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A16" s="14" t="s"/>
-      <x:c r="B16" s="13" t="s"/>
-      <x:c r="C16" s="3" t="s"/>
-      <x:c r="D16" s="11" t="s"/>
-      <x:c r="E16" s="6" t="s"/>
+      <x:c r="A16" s="14" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B16" s="13" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C16" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D16" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E16" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
     </x:row>
     <x:row r="17" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A17" s="14" t="s"/>
-      <x:c r="B17" s="13" t="s"/>
-      <x:c r="C17" s="3" t="s"/>
-      <x:c r="D17" s="2" t="s"/>
-      <x:c r="E17" s="6" t="s"/>
+      <x:c r="A17" s="14" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B17" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C17" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E17" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
     </x:row>
     <x:row r="18" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A18" s="15" t="s"/>
-      <x:c r="B18" s="13" t="s"/>
-      <x:c r="C18" s="3" t="s"/>
-      <x:c r="D18" s="11" t="s"/>
-      <x:c r="E18" s="6" t="s"/>
+      <x:c r="A18" s="15" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B18" s="13" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C18" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D18" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E18" s="6" t="s">
+        <x:v>44</x:v>
+      </x:c>
     </x:row>
     <x:row r="19" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A19" s="15" t="s"/>
-      <x:c r="B19" s="13" t="s"/>
-      <x:c r="C19" s="3" t="s"/>
-      <x:c r="D19" s="11" t="s"/>
-      <x:c r="E19" s="6" t="s"/>
+      <x:c r="A19" s="15" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B19" s="13" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C19" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D19" s="11" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E19" s="6" t="s">
+        <x:v>48</x:v>
+      </x:c>
     </x:row>
     <x:row r="20" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A20" s="15" t="s"/>
-      <x:c r="B20" s="13" t="s"/>
-      <x:c r="C20" s="13" t="s"/>
-      <x:c r="D20" s="11" t="s"/>
-      <x:c r="E20" s="6" t="s"/>
+      <x:c r="A20" s="15" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B20" s="13" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C20" s="13" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D20" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E20" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
     </x:row>
     <x:row r="21" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A21" s="4" t="s"/>
-      <x:c r="B21" s="13" t="s"/>
-      <x:c r="C21" s="3" t="s"/>
-      <x:c r="D21" s="11" t="s"/>
-      <x:c r="E21" s="6" t="s"/>
+      <x:c r="A21" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B21" s="13" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C21" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D21" s="11" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E21" s="6" t="s">
+        <x:v>48</x:v>
+      </x:c>
     </x:row>
     <x:row r="22" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A22" s="4" t="s"/>
-      <x:c r="B22" s="13" t="s"/>
-      <x:c r="C22" s="3" t="s"/>
-      <x:c r="D22" s="11" t="s"/>
-      <x:c r="E22" s="6" t="s"/>
+      <x:c r="A22" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B22" s="13" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C22" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D22" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E22" s="6" t="s">
+        <x:v>58</x:v>
+      </x:c>
     </x:row>
     <x:row r="23" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A23" s="7" t="s"/>
-      <x:c r="B23" s="13" t="s"/>
-      <x:c r="C23" s="3" t="s"/>
-      <x:c r="D23" s="11" t="s"/>
-      <x:c r="E23" s="6" t="s"/>
+      <x:c r="A23" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B23" s="13" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C23" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D23" s="11" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E23" s="6" t="s">
+        <x:v>44</x:v>
+      </x:c>
     </x:row>
     <x:row r="24" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A24" s="7" t="s"/>
-      <x:c r="B24" s="13" t="s"/>
-      <x:c r="C24" s="3" t="s"/>
-      <x:c r="D24" s="11" t="s"/>
-      <x:c r="E24" s="6" t="s"/>
+      <x:c r="A24" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B24" s="13" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C24" s="3" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D24" s="11" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E24" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
     </x:row>
     <x:row r="25" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A25" s="7" t="s"/>

--- a/Data/Input/Relatório_Sintético.xlsx
+++ b/Data/Input/Relatório_Sintético.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <x:si>
     <x:t>.....</x:t>
   </x:si>
@@ -221,6 +221,36 @@
   </x:si>
   <x:si>
     <x:t>00:07:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/03/2022 09:57:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/03/2022 10:05:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:07:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/03/2022 10:07:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/03/2022 10:29:39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:22:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/03/2022 10:34:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/03/2022 10:36:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:01:57</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -373,8 +403,269 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="553">
+  <x:cellStyleXfs count="640">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -2960,25 +3251,55 @@
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A25" s="7" t="s"/>
-      <x:c r="B25" s="13" t="s"/>
-      <x:c r="C25" s="3" t="s"/>
-      <x:c r="D25" s="11" t="s"/>
-      <x:c r="E25" s="6" t="s"/>
+      <x:c r="A25" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B25" s="13" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C25" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D25" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E25" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
     </x:row>
     <x:row r="26" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A26" s="7" t="s"/>
-      <x:c r="B26" s="3" t="s"/>
-      <x:c r="C26" s="3" t="s"/>
-      <x:c r="D26" s="11" t="s"/>
-      <x:c r="E26" s="6" t="s"/>
+      <x:c r="A26" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B26" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C26" s="3" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D26" s="11" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E26" s="6" t="s">
+        <x:v>71</x:v>
+      </x:c>
     </x:row>
     <x:row r="27" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A27" s="7" t="s"/>
-      <x:c r="B27" s="3" t="s"/>
-      <x:c r="C27" s="3" t="s"/>
-      <x:c r="D27" s="11" t="s"/>
-      <x:c r="E27" s="6" t="s"/>
+      <x:c r="A27" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B27" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C27" s="3" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D27" s="11" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E27" s="6" t="s">
+        <x:v>44</x:v>
+      </x:c>
     </x:row>
     <x:row r="28" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A28" s="7" t="s"/>

--- a/Data/Input/Relatório_Sintético.xlsx
+++ b/Data/Input/Relatório_Sintético.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <x:si>
     <x:t>.....</x:t>
   </x:si>
@@ -251,6 +251,15 @@
   </x:si>
   <x:si>
     <x:t>00:01:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/03/2022 12:28:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/03/2022 12:31:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:02:04</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -403,8 +412,95 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="640">
+  <x:cellStyleXfs count="669">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -3302,11 +3398,21 @@
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A28" s="7" t="s"/>
-      <x:c r="B28" s="3" t="s"/>
-      <x:c r="C28" s="3" t="s"/>
-      <x:c r="D28" s="11" t="s"/>
-      <x:c r="E28" s="6" t="s"/>
+      <x:c r="A28" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B28" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C28" s="3" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D28" s="11" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E28" s="6" t="s">
+        <x:v>44</x:v>
+      </x:c>
     </x:row>
     <x:row r="29" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A29" s="7" t="s"/>

--- a/Data/Input/Relatório_Sintético.xlsx
+++ b/Data/Input/Relatório_Sintético.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>.....</x:t>
   </x:si>
@@ -260,6 +260,36 @@
   </x:si>
   <x:si>
     <x:t>00:02:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/03/2022 13:40:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/03/2022 13:42:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:01:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/04/2022 11:48:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/04/2022 11:49:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:01:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/04/2022 12:15:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/04/2022 12:18:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:02:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -412,8 +442,269 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="669">
+  <x:cellStyleXfs count="756">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -3415,25 +3706,55 @@
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A29" s="7" t="s"/>
-      <x:c r="B29" s="3" t="s"/>
-      <x:c r="C29" s="3" t="s"/>
-      <x:c r="D29" s="11" t="s"/>
-      <x:c r="E29" s="6" t="s"/>
+      <x:c r="A29" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B29" s="3" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C29" s="3" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D29" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E29" s="6" t="s">
+        <x:v>44</x:v>
+      </x:c>
     </x:row>
     <x:row r="30" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A30" s="7" t="s"/>
-      <x:c r="B30" s="3" t="s"/>
-      <x:c r="C30" s="3" t="s"/>
-      <x:c r="D30" s="11" t="s"/>
-      <x:c r="E30" s="6" t="s"/>
+      <x:c r="A30" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B30" s="3" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C30" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D30" s="11" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E30" s="6" t="s">
+        <x:v>44</x:v>
+      </x:c>
     </x:row>
     <x:row r="31" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A31" s="7" t="s"/>
-      <x:c r="B31" s="3" t="s"/>
-      <x:c r="C31" s="3" t="s"/>
-      <x:c r="D31" s="11" t="s"/>
-      <x:c r="E31" s="6" t="s"/>
+      <x:c r="A31" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B31" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C31" s="3" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D31" s="11" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E31" s="6" t="s">
+        <x:v>87</x:v>
+      </x:c>
     </x:row>
     <x:row r="32" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A32" s="7" t="s"/>

--- a/Data/Input/Relatório_Sintético.xlsx
+++ b/Data/Input/Relatório_Sintético.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>.....</x:t>
   </x:si>
@@ -290,6 +290,15 @@
   </x:si>
   <x:si>
     <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/04/2022 17:13:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/04/2022 17:14:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:00:17</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -442,8 +451,95 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="756">
+  <x:cellStyleXfs count="785">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -3757,11 +3853,21 @@
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A32" s="7" t="s"/>
-      <x:c r="B32" s="3" t="s"/>
-      <x:c r="C32" s="3" t="s"/>
-      <x:c r="D32" s="11" t="s"/>
-      <x:c r="E32" s="6" t="s"/>
+      <x:c r="A32" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B32" s="3" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C32" s="3" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D32" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E32" s="6" t="s">
+        <x:v>58</x:v>
+      </x:c>
     </x:row>
     <x:row r="33" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A33" s="7" t="s"/>

--- a/Data/Input/Relatório_Sintético.xlsx
+++ b/Data/Input/Relatório_Sintético.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>.....</x:t>
   </x:si>
@@ -299,6 +299,24 @@
   </x:si>
   <x:si>
     <x:t>00:00:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/04/2022 17:49:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/04/2022 17:52:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:02:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/04/2022 22:14:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/04/2022 22:15:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:01:45</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -451,8 +469,182 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="785">
+  <x:cellStyleXfs count="843">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -3870,18 +4062,38 @@
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A33" s="7" t="s"/>
-      <x:c r="B33" s="3" t="s"/>
-      <x:c r="C33" s="3" t="s"/>
-      <x:c r="D33" s="11" t="s"/>
-      <x:c r="E33" s="6" t="s"/>
+      <x:c r="A33" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B33" s="3" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C33" s="3" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D33" s="11" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E33" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
     </x:row>
     <x:row r="34" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A34" s="7" t="s"/>
-      <x:c r="B34" s="3" t="s"/>
-      <x:c r="C34" s="3" t="s"/>
-      <x:c r="D34" s="11" t="s"/>
-      <x:c r="E34" s="6" t="s"/>
+      <x:c r="A34" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B34" s="3" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C34" s="3" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D34" s="11" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E34" s="6" t="s">
+        <x:v>44</x:v>
+      </x:c>
     </x:row>
     <x:row r="35" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A35" s="7" t="s"/>

--- a/Data/Input/Relatório_Sintético.xlsx
+++ b/Data/Input/Relatório_Sintético.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>.....</x:t>
   </x:si>
@@ -317,6 +317,15 @@
   </x:si>
   <x:si>
     <x:t>00:01:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/04/2022 11:13:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/04/2022 11:25:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:12:19</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -469,8 +478,95 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="843">
+  <x:cellStyleXfs count="872">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -4096,11 +4192,21 @@
       </x:c>
     </x:row>
     <x:row r="35" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A35" s="7" t="s"/>
-      <x:c r="B35" s="3" t="s"/>
-      <x:c r="C35" s="3" t="s"/>
-      <x:c r="D35" s="11" t="s"/>
-      <x:c r="E35" s="6" t="s"/>
+      <x:c r="A35" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B35" s="3" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C35" s="3" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D35" s="11" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E35" s="6" t="s">
+        <x:v>87</x:v>
+      </x:c>
     </x:row>
     <x:row r="36" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A36" s="7" t="s"/>

--- a/Data/Input/Relatório_Sintético.xlsx
+++ b/Data/Input/Relatório_Sintético.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>.....</x:t>
   </x:si>
@@ -326,6 +326,15 @@
   </x:si>
   <x:si>
     <x:t>00:12:19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/04/2022 17:39:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/04/2022 17:41:29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:01:54</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -478,8 +487,95 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="872">
+  <x:cellStyleXfs count="901">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -4209,11 +4305,21 @@
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A36" s="7" t="s"/>
-      <x:c r="B36" s="3" t="s"/>
-      <x:c r="C36" s="3" t="s"/>
-      <x:c r="D36" s="11" t="s"/>
-      <x:c r="E36" s="6" t="s"/>
+      <x:c r="A36" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B36" s="3" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C36" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D36" s="11" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E36" s="6" t="s">
+        <x:v>71</x:v>
+      </x:c>
     </x:row>
     <x:row r="37" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A37" s="7" t="s"/>

--- a/Data/Input/Relatório_Sintético.xlsx
+++ b/Data/Input/Relatório_Sintético.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <x:si>
     <x:t>.....</x:t>
   </x:si>
@@ -335,6 +335,48 @@
   </x:si>
   <x:si>
     <x:t>00:01:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/04/2022 20:26:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/04/2022 20:26:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/04/2022 08:52:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/04/2022 08:54:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:02:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/04/2022 08:57:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/04/2022 09:01:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:03:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/04/2022 09:10:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/04/2022 09:12:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:02:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/04/2022 09:16:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/04/2022 09:18:30</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -487,8 +529,443 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="901">
+  <x:cellStyleXfs count="1046">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -4323,38 +4800,86 @@
     </x:row>
     <x:row r="37" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A37" s="7" t="s"/>
-      <x:c r="B37" s="3" t="s"/>
-      <x:c r="C37" s="3" t="s"/>
-      <x:c r="D37" s="11" t="s"/>
-      <x:c r="E37" s="6" t="s"/>
+      <x:c r="B37" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C37" s="3" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D37" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E37" s="6" t="s">
+        <x:v>105</x:v>
+      </x:c>
     </x:row>
     <x:row r="38" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A38" s="7" t="s"/>
-      <x:c r="B38" s="3" t="s"/>
-      <x:c r="C38" s="3" t="s"/>
-      <x:c r="D38" s="11" t="s"/>
-      <x:c r="E38" s="6" t="s"/>
+      <x:c r="A38" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B38" s="3" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C38" s="3" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D38" s="11" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E38" s="6" t="s">
+        <x:v>71</x:v>
+      </x:c>
     </x:row>
     <x:row r="39" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A39" s="7" t="s"/>
-      <x:c r="B39" s="3" t="s"/>
-      <x:c r="C39" s="3" t="s"/>
-      <x:c r="D39" s="11" t="s"/>
-      <x:c r="E39" s="6" t="s"/>
+      <x:c r="A39" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B39" s="3" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C39" s="3" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D39" s="11" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E39" s="6" t="s">
+        <x:v>71</x:v>
+      </x:c>
     </x:row>
     <x:row r="40" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A40" s="7" t="s"/>
-      <x:c r="B40" s="3" t="s"/>
-      <x:c r="C40" s="3" t="s"/>
-      <x:c r="D40" s="11" t="s"/>
-      <x:c r="E40" s="6" t="s"/>
+      <x:c r="A40" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B40" s="3" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C40" s="3" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D40" s="11" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E40" s="6" t="s">
+        <x:v>71</x:v>
+      </x:c>
     </x:row>
     <x:row r="41" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A41" s="7" t="s"/>
-      <x:c r="B41" s="3" t="s"/>
-      <x:c r="C41" s="3" t="s"/>
-      <x:c r="D41" s="11" t="s"/>
-      <x:c r="E41" s="6" t="s"/>
+      <x:c r="A41" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B41" s="3" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C41" s="3" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D41" s="11" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E41" s="6" t="s">
+        <x:v>71</x:v>
+      </x:c>
     </x:row>
     <x:row r="42" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A42" s="7" t="s"/>
